--- a/FirstTables.xlsx
+++ b/FirstTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="81">
   <si>
     <t>log</t>
   </si>
@@ -240,6 +240,24 @@
   </si>
   <si>
     <t>property id</t>
+  </si>
+  <si>
+    <t>log-count req by tenent</t>
+  </si>
+  <si>
+    <t>subscription_amount</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>amount_for_req</t>
+  </si>
+  <si>
+    <t>Amount_for_addProperty</t>
+  </si>
+  <si>
+    <t>property_id</t>
   </si>
 </sst>
 </file>
@@ -248,11 +266,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,23 +287,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -296,25 +344,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -325,13 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -340,8 +403,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,10 +463,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,9 +487,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,76 +500,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,14 +528,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -506,37 +558,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,43 +690,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,104 +742,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -734,28 +786,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="9"/>
       </left>
       <right style="thin">
@@ -765,6 +795,208 @@
         <color theme="9"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -782,35 +1014,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="7"/>
       </left>
       <right style="thin">
@@ -818,50 +1021,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -879,28 +1038,37 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="5"/>
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
       <right style="thin">
         <color theme="4"/>
       </right>
@@ -908,17 +1076,6 @@
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -955,15 +1112,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -985,17 +1133,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1019,20 +1156,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,134 +1199,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,101 +1336,174 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1597,8 +1827,8 @@
   <sheetPr/>
   <dimension ref="A4:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1629,63 +1859,63 @@
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="45" t="s">
         <v>17</v>
       </c>
       <c r="I6" t="s">
@@ -1714,28 +1944,28 @@
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:16">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="45" t="s">
         <v>25</v>
       </c>
       <c r="I7" t="s">
@@ -1764,26 +1994,26 @@
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:14">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="45" t="s">
         <v>35</v>
       </c>
       <c r="I8" t="s">
@@ -1803,34 +2033,33 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="46" t="s">
         <v>43</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9"/>
       <c r="K9" t="s">
         <v>45</v>
       </c>
@@ -1839,22 +2068,22 @@
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:15">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>49</v>
       </c>
       <c r="G10" t="s">
@@ -1874,22 +2103,22 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="20">
+      <c r="A11" s="14">
         <v>5</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="18" t="s">
         <v>55</v>
       </c>
       <c r="I11" t="s">
@@ -1897,13 +2126,13 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:10">
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="17" t="s">
         <v>57</v>
       </c>
       <c r="I12" t="s">
@@ -1914,16 +2143,16 @@
       </c>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="20" t="s">
         <v>60</v>
       </c>
       <c r="I13" t="s">
@@ -1934,179 +2163,178 @@
       </c>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="34"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="53"/>
+      <c r="E15" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="4:12">
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="8:12">
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="20" ht="15.75" spans="8:12">
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="8:9">
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="8:9">
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="27"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="5:8">
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="59" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="5:8">
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="60" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="5:8">
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="60" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="5:8">
-      <c r="E27" s="32"/>
-      <c r="F27" s="28" t="s">
+      <c r="E27" s="30"/>
+      <c r="F27" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="60" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="5:9">
-      <c r="E28" s="32"/>
-      <c r="F28" s="28" t="s">
+      <c r="E28" s="30"/>
+      <c r="F28" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="29"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" ht="15.75" spans="5:9">
-      <c r="E29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="E29" s="30"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="5:9">
-      <c r="E30" s="32"/>
-      <c r="I30" s="28"/>
+      <c r="E30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" ht="15.75" spans="5:9">
-      <c r="E31" s="32"/>
-      <c r="I31" s="33"/>
+      <c r="E31" s="30"/>
+      <c r="I31" s="49"/>
     </row>
     <row r="32" spans="5:9">
-      <c r="E32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="E32" s="30"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" ht="15.75" spans="5:9">
-      <c r="E33" s="32"/>
-      <c r="I33" s="33"/>
+      <c r="E33" s="30"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="5:9">
-      <c r="E34" s="32"/>
-      <c r="F34"/>
-      <c r="I34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" ht="15.75" spans="5:9">
-      <c r="E35" s="32"/>
-      <c r="F35" s="25"/>
-      <c r="I35" s="33"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="21"/>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" s="32"/>
-      <c r="I36" s="32"/>
-    </row>
-    <row r="37" spans="9:9">
-      <c r="I37" s="33"/>
+      <c r="E36" s="30"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" ht="15.75" spans="9:9">
+      <c r="I37" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2117,10 +2345,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:P37"/>
+  <dimension ref="A4:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2128,11 +2356,11 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="13.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="14.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="5" max="5" width="21.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="14.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="8" max="8" width="21.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="23.1428571428571" customWidth="1"/>
     <col min="10" max="10" width="3.85714285714286" customWidth="1"/>
     <col min="11" max="12" width="13.4285714285714" customWidth="1"/>
     <col min="13" max="13" width="19.2857142857143" customWidth="1"/>
@@ -2140,12 +2368,12 @@
     <col min="19" max="19" width="15.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="1" spans="8:8">
-      <c r="H4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:16">
+    <row r="4" customFormat="1" spans="9:9">
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -2154,503 +2382,477 @@
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:16">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="17" customHeight="1" spans="1:16">
-      <c r="A7" s="8">
+    </row>
+    <row r="7" customFormat="1" ht="17" customHeight="1" spans="1:9">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A8" s="8">
+    </row>
+    <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:14">
-      <c r="A9" s="8">
+    </row>
+    <row r="9" customFormat="1" spans="1:9">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:15">
-      <c r="A10" s="8">
+    </row>
+    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="H10"/>
-      <c r="I10" t="s">
+      <c r="H10" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" s="14">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="4:6">
+      <c r="D12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" customFormat="1" spans="4:6">
+      <c r="D13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" customFormat="1" spans="4:6">
+      <c r="D14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" customFormat="1" spans="4:5">
+      <c r="D15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="5:5">
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" customFormat="1" spans="4:4">
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" customFormat="1" ht="16" customHeight="1" spans="8:8">
+      <c r="H18" s="21"/>
+    </row>
+    <row r="20" customFormat="1" ht="15.75" spans="8:12">
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" customFormat="1" spans="9:12">
+      <c r="I21" s="47"/>
+      <c r="L21" s="48"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:9">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:9">
+      <c r="B23" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="2:9">
+      <c r="B24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:9">
+      <c r="B25" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:9">
+      <c r="B26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:9">
+      <c r="B27" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:7">
+      <c r="B28" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" customFormat="1" spans="2:7">
+      <c r="B29" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="G29" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="2:7">
+      <c r="B30" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="J10"/>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:9">
-      <c r="A11" s="20">
-        <v>5</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" t="s">
+      <c r="C30" s="28"/>
+      <c r="G30" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="2:7">
+      <c r="B31" s="36" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" customHeight="1" spans="4:10">
-      <c r="D12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="4:10">
-      <c r="D13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="4:10">
-      <c r="D14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14"/>
-      <c r="I14" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="4:7">
-      <c r="D15" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="G15" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="15.75" spans="5:12">
-      <c r="E16" s="15"/>
-      <c r="G16" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16"/>
-      <c r="I16" s="25"/>
-      <c r="J16"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" customFormat="1" spans="4:7">
-      <c r="D17" s="23"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="16" customHeight="1" spans="8:12">
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1" ht="15.75" spans="8:12">
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" customFormat="1" spans="8:9">
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" customFormat="1" spans="8:9">
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" customFormat="1" spans="5:5">
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" customFormat="1" spans="5:8">
-      <c r="E24" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="5:8">
-      <c r="E25" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="5:8">
-      <c r="E26" s="28" t="s">
+      <c r="C31" s="37"/>
+      <c r="G31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="5:8">
-      <c r="E27" s="32"/>
-      <c r="F27" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27"/>
-      <c r="H27" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="5:9">
-      <c r="E28" s="32"/>
-      <c r="F28" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" customFormat="1" ht="15.75" spans="5:9">
-      <c r="E29" s="32"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29" s="33"/>
-    </row>
-    <row r="30" customFormat="1" spans="5:9">
-      <c r="E30" s="32"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" customFormat="1" ht="15.75" spans="5:9">
-      <c r="E31" s="32"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" customFormat="1" spans="5:9">
-      <c r="E32" s="32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" customFormat="1" ht="15.75" spans="5:9">
-      <c r="E33" s="32"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" customFormat="1" spans="5:9">
-      <c r="E34" s="32"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="35" customFormat="1" ht="15.75" spans="5:9">
-      <c r="E35" s="32"/>
-      <c r="F35" s="25"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" customFormat="1" spans="5:9">
-      <c r="E36" s="32"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36" s="32"/>
-    </row>
+    </row>
+    <row r="32" customFormat="1" spans="7:7">
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="15.75" spans="4:5">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1" ht="15.75" spans="2:5">
+      <c r="B35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" customFormat="1"/>
     <row r="37" customFormat="1" ht="15.75" spans="9:9">
-      <c r="I37" s="33"/>
+      <c r="I37" s="49"/>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="4:8">
+      <c r="D40" s="39"/>
+      <c r="E40"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="4:8">
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="4:8">
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="4:8">
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="38"/>
+    </row>
+    <row r="44" spans="4:8">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="38"/>
+    </row>
+    <row r="45" spans="4:8">
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="42"/>
+    </row>
+    <row r="46" ht="15.75" spans="4:8">
+      <c r="D46" s="30"/>
+      <c r="E46"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="43"/>
+    </row>
+    <row r="47" spans="4:8">
+      <c r="D47" s="30"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FirstTables.xlsx
+++ b/FirstTables.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="119">
   <si>
     <t>log</t>
   </si>
@@ -245,12 +246,21 @@
     <t>log-count req by tenent</t>
   </si>
   <si>
+    <t>login table</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>login_id</t>
+  </si>
+  <si>
+    <t>no of requests_rem</t>
+  </si>
+  <si>
     <t>subscription_amount</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>amount_for_req</t>
   </si>
   <si>
@@ -258,6 +268,111 @@
   </si>
   <si>
     <t>property_id</t>
+  </si>
+  <si>
+    <t>suraj46</t>
+  </si>
+  <si>
+    <t>sPWD@123</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>shivam22</t>
+  </si>
+  <si>
+    <t>pwd@123</t>
+  </si>
+  <si>
+    <t>req_amount</t>
+  </si>
+  <si>
+    <t>tenant</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>suraj</t>
+  </si>
+  <si>
+    <t>kushire</t>
+  </si>
+  <si>
+    <t>su@123</t>
+  </si>
+  <si>
+    <t>sangli</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>o1</t>
+  </si>
+  <si>
+    <t>shivam</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>shiv@123</t>
+  </si>
+  <si>
+    <t>agra</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>login_Id</t>
+  </si>
+  <si>
+    <t>18/07/2023</t>
+  </si>
+  <si>
+    <t>18/08/2023</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>login_ID {FK}</t>
+  </si>
+  <si>
+    <t>forWhat</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>req</t>
+  </si>
+  <si>
+    <t>By_Payment_table</t>
+  </si>
+  <si>
+    <t>total amount of sub</t>
+  </si>
+  <si>
+    <t>total amount of request</t>
+  </si>
+  <si>
+    <t>per id payment</t>
+  </si>
+  <si>
+    <t>per id no of req</t>
   </si>
 </sst>
 </file>
@@ -265,10 +380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -287,7 +402,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -310,13 +442,6 @@
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.25"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -358,7 +483,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,25 +509,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,28 +534,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,17 +572,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,13 +594,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,6 +631,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
       </patternFill>
@@ -534,6 +655,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -558,13 +697,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +745,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,49 +769,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,49 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,59 +881,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -769,6 +897,15 @@
         <color theme="5"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -786,6 +923,30 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="9"/>
       </left>
       <right style="thin">
@@ -794,6 +955,39 @@
       <top style="thin">
         <color theme="9"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -812,37 +1006,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="8"/>
       </left>
       <right style="thin">
@@ -850,19 +1013,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -879,6 +1029,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="5"/>
       </left>
@@ -887,37 +1075,6 @@
       <bottom style="thin">
         <color theme="5"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1075,6 +1232,78 @@
       <top/>
       <bottom style="thin">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,69 +1323,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1167,29 +1333,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,311 +1356,371 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1854,68 +2071,68 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="58" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="63" t="s">
         <v>17</v>
       </c>
       <c r="I6" t="s">
@@ -1944,28 +2161,28 @@
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:16">
-      <c r="A7" s="6">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="63" t="s">
         <v>25</v>
       </c>
       <c r="I7" t="s">
@@ -1994,26 +2211,26 @@
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:14">
-      <c r="A8" s="6">
+      <c r="A8" s="28">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="63" t="s">
         <v>35</v>
       </c>
       <c r="I8" t="s">
@@ -2033,28 +2250,28 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="6">
+      <c r="A9" s="28">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="64" t="s">
         <v>43</v>
       </c>
       <c r="I9" t="s">
@@ -2068,22 +2285,22 @@
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:15">
-      <c r="A10" s="6">
+      <c r="A10" s="28">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="40" t="s">
         <v>49</v>
       </c>
       <c r="G10" t="s">
@@ -2103,22 +2320,22 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="14">
+      <c r="A11" s="37">
         <v>5</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="75" t="s">
         <v>55</v>
       </c>
       <c r="I11" t="s">
@@ -2126,13 +2343,13 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:10">
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="40" t="s">
         <v>57</v>
       </c>
       <c r="I12" t="s">
@@ -2143,16 +2360,16 @@
       </c>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="73" t="s">
         <v>60</v>
       </c>
       <c r="I13" t="s">
@@ -2163,178 +2380,178 @@
       </c>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="53"/>
-      <c r="E15" s="55" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="73" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="4:12">
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="I16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="73" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="8:12">
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="20" ht="15.75" spans="8:12">
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
     </row>
     <row r="21" spans="8:9">
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="8:9">
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="39"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="5:8">
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="79" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="5:8">
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="60" t="s">
+      <c r="H25" s="80" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="5:8">
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="80" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="5:8">
-      <c r="E27" s="30"/>
-      <c r="F27" s="30" t="s">
+      <c r="E27" s="51"/>
+      <c r="F27" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="60" t="s">
+      <c r="H27" s="80" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="5:9">
-      <c r="E28" s="30"/>
-      <c r="F28" s="30" t="s">
+      <c r="E28" s="51"/>
+      <c r="F28" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="24"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" ht="15.75" spans="5:9">
-      <c r="E29" s="30"/>
-      <c r="I29" s="49"/>
+      <c r="E29" s="51"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="5:9">
-      <c r="E30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="E30" s="51"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" ht="15.75" spans="5:9">
-      <c r="E31" s="30"/>
-      <c r="I31" s="49"/>
+      <c r="E31" s="51"/>
+      <c r="I31" s="67"/>
     </row>
     <row r="32" spans="5:9">
-      <c r="E32" s="30"/>
-      <c r="I32" s="30"/>
+      <c r="E32" s="51"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" ht="15.75" spans="5:9">
-      <c r="E33" s="30"/>
-      <c r="I33" s="49"/>
+      <c r="E33" s="51"/>
+      <c r="I33" s="67"/>
     </row>
     <row r="34" spans="5:9">
-      <c r="E34" s="30"/>
-      <c r="I34" s="30"/>
+      <c r="E34" s="51"/>
+      <c r="I34" s="51"/>
     </row>
     <row r="35" ht="15.75" spans="5:9">
-      <c r="E35" s="30"/>
-      <c r="F35" s="21"/>
-      <c r="I35" s="49"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="43"/>
+      <c r="I35" s="67"/>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="E36" s="51"/>
+      <c r="I36" s="51"/>
     </row>
     <row r="37" ht="15.75" spans="9:9">
-      <c r="I37" s="49"/>
+      <c r="I37" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2347,8 +2564,8 @@
   <sheetPr/>
   <dimension ref="A4:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2361,7 +2578,7 @@
     <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
     <col min="8" max="8" width="21.8571428571429" customWidth="1"/>
     <col min="9" max="9" width="23.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="3.85714285714286" customWidth="1"/>
+    <col min="10" max="10" width="14.8571428571429" customWidth="1"/>
     <col min="11" max="12" width="13.4285714285714" customWidth="1"/>
     <col min="13" max="13" width="19.2857142857143" customWidth="1"/>
     <col min="16" max="16" width="14.4285714285714" customWidth="1"/>
@@ -2374,488 +2591,1064 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="17" customHeight="1" spans="1:9">
+      <c r="A7" s="28">
+        <v>1</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A8" s="28">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:9">
+      <c r="A9" s="28">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="B9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A10" s="28">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="B10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" s="37">
         <v>5</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B11" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="4:6">
+      <c r="D12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="4:6">
+      <c r="D13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="4:6">
+      <c r="D14" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="5:6">
+      <c r="E15" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="5:7">
+      <c r="E16" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" customFormat="1" spans="5:6">
+      <c r="E17" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="16" customHeight="1" spans="8:8">
+      <c r="H18" s="43"/>
+    </row>
+    <row r="20" customFormat="1" ht="15.75" spans="8:12">
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+    </row>
+    <row r="21" customFormat="1" spans="9:12">
+      <c r="I21" s="65"/>
+      <c r="L21" s="66"/>
+    </row>
+    <row r="22" customFormat="1" spans="2:9">
+      <c r="B22" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="48"/>
+    </row>
+    <row r="23" customFormat="1" spans="2:9">
+      <c r="B23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="C23" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="E23" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="F23" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="G23" s="52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" ht="17" customHeight="1" spans="1:9">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="H23" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="2:9">
+      <c r="B24" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:9">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:6">
-      <c r="A11" s="14">
-        <v>5</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" customHeight="1" spans="4:6">
-      <c r="D12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" customFormat="1" spans="4:6">
-      <c r="D13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" customFormat="1" spans="4:6">
-      <c r="D14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="H24" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="2:9">
+      <c r="B25" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="53"/>
+    </row>
+    <row r="26" customFormat="1" spans="2:9">
+      <c r="B26" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="53"/>
+    </row>
+    <row r="27" customFormat="1" spans="2:9">
+      <c r="B27" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="2:7">
+      <c r="B28" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="52"/>
+    </row>
+    <row r="29" customFormat="1" spans="2:7">
+      <c r="B29" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="G29" s="47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="2:7">
+      <c r="B30" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="G30" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" customFormat="1" spans="4:5">
-      <c r="D15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="5:5">
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" customFormat="1" spans="4:4">
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" customFormat="1" ht="16" customHeight="1" spans="8:8">
-      <c r="H18" s="21"/>
-    </row>
-    <row r="20" customFormat="1" ht="15.75" spans="8:12">
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" customFormat="1" spans="9:12">
-      <c r="I21" s="47"/>
-      <c r="L21" s="48"/>
-    </row>
-    <row r="22" customFormat="1" spans="2:9">
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="26"/>
-    </row>
-    <row r="23" customFormat="1" spans="2:9">
-      <c r="B23" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="2:9">
-      <c r="B24" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="2:9">
-      <c r="B25" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" customFormat="1" spans="2:9">
-      <c r="B26" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" customFormat="1" spans="2:9">
-      <c r="B27" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="2:7">
-      <c r="B28" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" customFormat="1" spans="2:7">
-      <c r="B29" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="G29" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="2:7">
-      <c r="B30" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="G30" s="31" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="31" customFormat="1" spans="2:7">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="G31" s="31" t="s">
+      <c r="C31" s="56"/>
+      <c r="G31" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="7:7">
       <c r="G32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="15.75" spans="4:5">
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" customFormat="1"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+    </row>
     <row r="35" customFormat="1" ht="15.75" spans="2:5">
-      <c r="B35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-    </row>
-    <row r="36" customFormat="1"/>
+      <c r="B35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+    </row>
     <row r="37" customFormat="1" ht="15.75" spans="9:9">
-      <c r="I37" s="49"/>
+      <c r="I37" s="67"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
     </row>
     <row r="40" spans="4:8">
-      <c r="D40" s="39"/>
-      <c r="E40"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="D40" s="58"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
     </row>
     <row r="41" spans="4:8">
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="38"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="57"/>
     </row>
     <row r="42" spans="4:8">
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="38"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
     </row>
     <row r="43" spans="4:8">
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="38"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
     </row>
     <row r="44" spans="4:8">
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="38"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
     </row>
     <row r="45" spans="4:8">
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="42"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="60"/>
     </row>
     <row r="46" ht="15.75" spans="4:8">
-      <c r="D46" s="30"/>
-      <c r="E46"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="43"/>
+      <c r="D46" s="51"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="61"/>
     </row>
     <row r="47" spans="4:8">
-      <c r="D47" s="30"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47" s="30"/>
+      <c r="D47" s="51"/>
+      <c r="H47" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="19.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="11.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="14.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="11.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="21.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="21.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="24.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="4">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="4">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="4">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="4">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="4">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="4">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="4">
+        <v>8887764849</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="4">
+        <v>889745758</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="4">
+        <v>100</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="4">
+        <v>50</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="4">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="9:9">
+      <c r="I25" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="9:9">
+      <c r="I26" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9">
+      <c r="I27" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9">
+      <c r="I28" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="9:9">
+      <c r="I29" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1" display="su@123" tooltip="mailto:su@123"/>
+    <hyperlink ref="D7" r:id="rId2" display="sPWD@123"/>
+    <hyperlink ref="E16" r:id="rId3" display="shiv@123"/>
+    <hyperlink ref="D8" r:id="rId4" display="pwd@123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/FirstTables.xlsx
+++ b/FirstTables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="148">
   <si>
     <t>log</t>
   </si>
@@ -373,6 +373,93 @@
   </si>
   <si>
     <t>per id no of req</t>
+  </si>
+  <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>area_id</t>
+  </si>
+  <si>
+    <t>property type_name</t>
+  </si>
+  <si>
+    <t>preferred for</t>
+  </si>
+  <si>
+    <t>pty1</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>My_bunglow</t>
+  </si>
+  <si>
+    <t>xxxxxxx</t>
+  </si>
+  <si>
+    <t>loc1</t>
+  </si>
+  <si>
+    <t>pune</t>
+  </si>
+  <si>
+    <t>maharashtra</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>deccan</t>
+  </si>
+  <si>
+    <t>facility_property table</t>
+  </si>
+  <si>
+    <t>facility_id</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>fp1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>fp2</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>fid1</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>pt1</t>
+  </si>
+  <si>
+    <t>pt2</t>
+  </si>
+  <si>
+    <t>house</t>
   </si>
 </sst>
 </file>
@@ -380,9 +467,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="31">
@@ -418,6 +505,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -425,13 +525,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -448,17 +549,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="9" tint="-0.25"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.25"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -475,28 +575,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,17 +590,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,18 +627,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -573,21 +659,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,8 +687,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="45">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +748,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -673,14 +790,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -697,31 +814,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,19 +940,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,127 +994,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,24 +1146,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="5"/>
       </left>
@@ -1079,28 +1178,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="5"/>
       </left>
       <right style="thin">
@@ -1109,15 +1186,6 @@
       <top style="thin">
         <color theme="5"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="5"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1143,6 +1211,55 @@
       <bottom style="thin">
         <color theme="5"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1237,16 +1354,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,40 +1396,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1333,12 +1441,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1359,131 +1476,131 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1505,9 +1622,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1535,9 +1649,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1550,25 +1661,85 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1595,96 +1766,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1693,13 +1858,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1708,19 +1873,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2044,8 +2209,8 @@
   <sheetPr/>
   <dimension ref="A4:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2071,68 +2236,68 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="27"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="58" t="s">
+      <c r="N5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="74" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="79" t="s">
         <v>17</v>
       </c>
       <c r="I6" t="s">
@@ -2161,28 +2326,28 @@
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:16">
-      <c r="A7" s="28">
+      <c r="A7" s="46">
         <v>1</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="79" t="s">
         <v>25</v>
       </c>
       <c r="I7" t="s">
@@ -2211,26 +2376,26 @@
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:14">
-      <c r="A8" s="28">
+      <c r="A8" s="46">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="72" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="79" t="s">
         <v>35</v>
       </c>
       <c r="I8" t="s">
@@ -2250,28 +2415,28 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="28">
+      <c r="A9" s="46">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="80" t="s">
         <v>43</v>
       </c>
       <c r="I9" t="s">
@@ -2285,22 +2450,22 @@
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:15">
-      <c r="A10" s="28">
+      <c r="A10" s="46">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="57" t="s">
         <v>49</v>
       </c>
       <c r="G10" t="s">
@@ -2320,22 +2485,22 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="37">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="91" t="s">
         <v>55</v>
       </c>
       <c r="I11" t="s">
@@ -2343,13 +2508,13 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:10">
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="57" t="s">
         <v>57</v>
       </c>
       <c r="I12" t="s">
@@ -2360,16 +2525,16 @@
       </c>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="89" t="s">
         <v>60</v>
       </c>
       <c r="I13" t="s">
@@ -2380,178 +2545,178 @@
       </c>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="67" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="71"/>
-      <c r="E15" s="74" t="s">
+      <c r="D15" s="87"/>
+      <c r="E15" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="89" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="4:12">
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
+      <c r="I16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="73" t="s">
+      <c r="G17" s="89" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="8:12">
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
     </row>
     <row r="20" ht="15.75" spans="8:12">
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" spans="8:9">
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
     </row>
     <row r="22" spans="8:9">
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="58"/>
+      <c r="E23" s="74"/>
     </row>
     <row r="24" spans="5:8">
-      <c r="E24" s="51" t="s">
+      <c r="E24" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="95" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="5:8">
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="80" t="s">
+      <c r="H25" s="96" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="5:8">
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="80" t="s">
+      <c r="H26" s="96" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="5:8">
-      <c r="E27" s="51"/>
-      <c r="F27" s="51" t="s">
+      <c r="E27" s="67"/>
+      <c r="F27" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="80" t="s">
+      <c r="H27" s="96" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="5:9">
-      <c r="E28" s="51"/>
-      <c r="F28" s="51" t="s">
+      <c r="E28" s="67"/>
+      <c r="F28" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="46"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" ht="15.75" spans="5:9">
-      <c r="E29" s="51"/>
-      <c r="I29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="I29" s="83"/>
     </row>
     <row r="30" spans="5:9">
-      <c r="E30" s="51"/>
-      <c r="I30" s="51"/>
+      <c r="E30" s="67"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" ht="15.75" spans="5:9">
-      <c r="E31" s="51"/>
-      <c r="I31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="I31" s="83"/>
     </row>
     <row r="32" spans="5:9">
-      <c r="E32" s="51"/>
-      <c r="I32" s="51"/>
+      <c r="E32" s="67"/>
+      <c r="I32" s="67"/>
     </row>
     <row r="33" ht="15.75" spans="5:9">
-      <c r="E33" s="51"/>
-      <c r="I33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="I33" s="83"/>
     </row>
     <row r="34" spans="5:9">
-      <c r="E34" s="51"/>
-      <c r="I34" s="51"/>
+      <c r="E34" s="67"/>
+      <c r="I34" s="67"/>
     </row>
     <row r="35" ht="15.75" spans="5:9">
-      <c r="E35" s="51"/>
-      <c r="F35" s="43"/>
-      <c r="I35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="59"/>
+      <c r="I35" s="83"/>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" s="51"/>
-      <c r="I36" s="51"/>
+      <c r="E36" s="67"/>
+      <c r="I36" s="67"/>
     </row>
     <row r="37" ht="15.75" spans="9:9">
-      <c r="I37" s="67"/>
+      <c r="I37" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2565,7 +2730,7 @@
   <dimension ref="A4:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H10"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2591,7 +2756,7 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" s="27"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2605,405 +2770,405 @@
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="78" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="79" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="17" customHeight="1" spans="1:9">
-      <c r="A7" s="28">
+      <c r="A7" s="46">
         <v>1</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="79" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A8" s="28">
+      <c r="A8" s="46">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:9">
-      <c r="A9" s="28">
+      <c r="A9" s="46">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="80" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A10" s="28">
+      <c r="A10" s="46">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="54" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
-      <c r="A11" s="37">
+      <c r="A11" s="55">
         <v>5</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="51" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="4:6">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="48" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="4:6">
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="49" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="57" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:6">
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="51" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:6">
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="5:7">
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="42"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" customFormat="1" spans="5:6">
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="52" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="16" customHeight="1" spans="8:8">
-      <c r="H18" s="43"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="20" customFormat="1" ht="15.75" spans="8:12">
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
     </row>
     <row r="21" customFormat="1" spans="9:12">
-      <c r="I21" s="65"/>
-      <c r="L21" s="66"/>
+      <c r="I21" s="81"/>
+      <c r="L21" s="82"/>
     </row>
     <row r="22" customFormat="1" spans="2:9">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="48"/>
+      <c r="I22" s="64"/>
     </row>
     <row r="23" customFormat="1" spans="2:9">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="69" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:9">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="53" t="s">
+      <c r="H24" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="69" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:9">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="70" t="s">
         <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="53"/>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" customFormat="1" spans="2:9">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="53"/>
+      <c r="I26" s="69"/>
     </row>
     <row r="27" customFormat="1" spans="2:9">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="69" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:7">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" customFormat="1" spans="2:7">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="G29" s="47" t="s">
+      <c r="C29" s="65"/>
+      <c r="G29" s="63" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:7">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="G30" s="52" t="s">
+      <c r="C30" s="65"/>
+      <c r="G30" s="68" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:7">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="G31" s="52" t="s">
+      <c r="C31" s="72"/>
+      <c r="G31" s="68" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3013,72 +3178,72 @@
       </c>
     </row>
     <row r="33" customFormat="1" ht="15.75" spans="4:5">
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
     </row>
     <row r="35" customFormat="1" ht="15.75" spans="2:5">
-      <c r="B35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
+      <c r="B35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
     </row>
     <row r="37" customFormat="1" ht="15.75" spans="9:9">
-      <c r="I37" s="67"/>
+      <c r="I37" s="83"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
     </row>
     <row r="40" spans="4:8">
-      <c r="D40" s="58"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
+      <c r="D40" s="74"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
     </row>
     <row r="41" spans="4:8">
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="57"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="73"/>
     </row>
     <row r="42" spans="4:8">
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
     </row>
     <row r="43" spans="4:8">
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
     </row>
     <row r="44" spans="4:8">
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
     </row>
     <row r="45" spans="4:8">
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="60"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="76"/>
     </row>
     <row r="46" ht="15.75" spans="4:8">
-      <c r="D46" s="51"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="61"/>
+      <c r="D46" s="67"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="77"/>
     </row>
     <row r="47" spans="4:8">
-      <c r="D47" s="51"/>
-      <c r="H47" s="51"/>
+      <c r="D47" s="67"/>
+      <c r="H47" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3089,22 +3254,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:L29"/>
+  <dimension ref="A3:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="14.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="18.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="19.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="19.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="11.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="14.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="11.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="22.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="15.2857142857143" customWidth="1"/>
     <col min="9" max="9" width="21.4285714285714" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="21.5714285714286" customWidth="1"/>
@@ -3166,13 +3331,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="4"/>
@@ -3190,7 +3355,7 @@
       <c r="C7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E7" s="4">
@@ -3211,7 +3376,7 @@
       <c r="C8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="4">
@@ -3226,19 +3391,19 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F9" s="4"/>
@@ -3292,40 +3457,40 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="37" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3340,7 +3505,7 @@
       <c r="D13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -3381,34 +3546,34 @@
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="37" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3422,7 +3587,7 @@
       <c r="D16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -3457,22 +3622,22 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="4"/>
@@ -3529,25 +3694,25 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="19" t="s">
         <v>110</v>
       </c>
       <c r="H21" s="4"/>
@@ -3617,28 +3782,411 @@
       </c>
     </row>
     <row r="25" ht="15.75" spans="9:9">
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="9:9">
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="39" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27" spans="9:9">
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="40" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="28" spans="9:9">
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="9:9">
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="40" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="23">
+        <v>5000</v>
+      </c>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="23">
+        <v>444444</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="4:9">
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="23">
+        <v>3</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="35"/>
+      <c r="B63" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="35"/>
+      <c r="B64" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/FirstTables.xlsx
+++ b/FirstTables.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="167">
   <si>
     <t>log</t>
   </si>
@@ -460,6 +461,63 @@
   </si>
   <si>
     <t>house</t>
+  </si>
+  <si>
+    <t>roles table</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>city table</t>
+  </si>
+  <si>
+    <t>area table</t>
+  </si>
+  <si>
+    <t>city_id</t>
+  </si>
+  <si>
+    <t>no_of_req_rem</t>
+  </si>
+  <si>
+    <t>contact_no</t>
+  </si>
+  <si>
+    <t>add property request rem</t>
+  </si>
+  <si>
+    <t>property table</t>
+  </si>
+  <si>
+    <t>property type_id</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>propertype table</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name</t>
+  </si>
+  <si>
+    <t>subscription table</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>no of properties</t>
+  </si>
+  <si>
+    <t>payment table</t>
+  </si>
+  <si>
+    <t>sub_id</t>
+  </si>
+  <si>
+    <t>transcation</t>
   </si>
 </sst>
 </file>
@@ -467,15 +525,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.05"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.05"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -506,12 +585,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -575,60 +648,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,8 +663,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -665,8 +702,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,7 +712,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,26 +742,64 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -748,12 +839,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -814,187 +899,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,6 +1084,37 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1142,37 +1252,6 @@
       <top/>
       <bottom style="thin">
         <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1377,21 +1456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1431,13 +1495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1450,493 +1518,516 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2209,7 +2300,7 @@
   <sheetPr/>
   <dimension ref="A4:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -2236,68 +2327,68 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="45"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="84" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="N5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="74" t="s">
+      <c r="P5" s="78" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="79" t="s">
+      <c r="G6" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="83" t="s">
         <v>17</v>
       </c>
       <c r="I6" t="s">
@@ -2326,28 +2417,28 @@
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:16">
-      <c r="A7" s="46">
+      <c r="A7" s="50">
         <v>1</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="83" t="s">
         <v>25</v>
       </c>
       <c r="I7" t="s">
@@ -2376,26 +2467,26 @@
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:14">
-      <c r="A8" s="46">
+      <c r="A8" s="50">
         <v>2</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="88" t="s">
+      <c r="D8" s="96"/>
+      <c r="E8" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="83" t="s">
         <v>35</v>
       </c>
       <c r="I8" t="s">
@@ -2415,28 +2506,28 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="46">
+      <c r="A9" s="50">
         <v>3</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="91" t="s">
+      <c r="F9" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="84" t="s">
         <v>43</v>
       </c>
       <c r="I9" t="s">
@@ -2450,22 +2541,22 @@
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:15">
-      <c r="A10" s="46">
+      <c r="A10" s="50">
         <v>4</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="61" t="s">
         <v>49</v>
       </c>
       <c r="G10" t="s">
@@ -2485,22 +2576,22 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="55">
+      <c r="A11" s="59">
         <v>5</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="90" t="s">
+      <c r="E11" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="95" t="s">
         <v>55</v>
       </c>
       <c r="I11" t="s">
@@ -2508,13 +2599,13 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:10">
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="61" t="s">
         <v>57</v>
       </c>
       <c r="I12" t="s">
@@ -2525,16 +2616,16 @@
       </c>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="93" t="s">
         <v>60</v>
       </c>
       <c r="I13" t="s">
@@ -2545,178 +2636,178 @@
       </c>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="67" t="s">
+      <c r="G14" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="71" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="87"/>
-      <c r="E15" s="90" t="s">
+      <c r="D15" s="91"/>
+      <c r="E15" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G15" s="93" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="4:12">
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="94" t="s">
+      <c r="F16" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="89" t="s">
+      <c r="G16" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
+      <c r="I16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="89" t="s">
+      <c r="G17" s="93" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="8:12">
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
     </row>
     <row r="20" ht="15.75" spans="8:12">
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" spans="8:9">
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
     </row>
     <row r="22" spans="8:9">
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="74"/>
+      <c r="E23" s="78"/>
     </row>
     <row r="24" spans="5:8">
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="95" t="s">
+      <c r="H24" s="99" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="5:8">
-      <c r="E25" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="96" t="s">
+      <c r="E25" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="100" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="5:8">
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="96" t="s">
+      <c r="H26" s="100" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="5:8">
-      <c r="E27" s="67"/>
-      <c r="F27" s="67" t="s">
+      <c r="E27" s="71"/>
+      <c r="F27" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="96" t="s">
+      <c r="H27" s="100" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="5:9">
-      <c r="E28" s="67"/>
-      <c r="F28" s="67" t="s">
+      <c r="E28" s="71"/>
+      <c r="F28" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="62"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" ht="15.75" spans="5:9">
-      <c r="E29" s="67"/>
-      <c r="I29" s="83"/>
+      <c r="E29" s="71"/>
+      <c r="I29" s="87"/>
     </row>
     <row r="30" spans="5:9">
-      <c r="E30" s="67"/>
-      <c r="I30" s="67"/>
+      <c r="E30" s="71"/>
+      <c r="I30" s="71"/>
     </row>
     <row r="31" ht="15.75" spans="5:9">
-      <c r="E31" s="67"/>
-      <c r="I31" s="83"/>
+      <c r="E31" s="71"/>
+      <c r="I31" s="87"/>
     </row>
     <row r="32" spans="5:9">
-      <c r="E32" s="67"/>
-      <c r="I32" s="67"/>
+      <c r="E32" s="71"/>
+      <c r="I32" s="71"/>
     </row>
     <row r="33" ht="15.75" spans="5:9">
-      <c r="E33" s="67"/>
-      <c r="I33" s="83"/>
+      <c r="E33" s="71"/>
+      <c r="I33" s="87"/>
     </row>
     <row r="34" spans="5:9">
-      <c r="E34" s="67"/>
-      <c r="I34" s="67"/>
+      <c r="E34" s="71"/>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" ht="15.75" spans="5:9">
-      <c r="E35" s="67"/>
-      <c r="F35" s="59"/>
-      <c r="I35" s="83"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="63"/>
+      <c r="I35" s="87"/>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" s="67"/>
-      <c r="I36" s="67"/>
+      <c r="E36" s="71"/>
+      <c r="I36" s="71"/>
     </row>
     <row r="37" ht="15.75" spans="9:9">
-      <c r="I37" s="83"/>
+      <c r="I37" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2756,419 +2847,419 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" s="45"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="82" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="79" t="s">
+      <c r="D6" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="83" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="17" customHeight="1" spans="1:9">
-      <c r="A7" s="46">
+      <c r="A7" s="50">
         <v>1</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="83" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A8" s="46">
+      <c r="A8" s="50">
         <v>2</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="83" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:9">
-      <c r="A9" s="46">
+      <c r="A9" s="50">
         <v>3</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="84" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A10" s="46">
+      <c r="A10" s="50">
         <v>4</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="58" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
-      <c r="A11" s="55">
+      <c r="A11" s="59">
         <v>5</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="4:6">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="52" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="4:6">
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="53" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="61" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:6">
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="55" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:6">
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="5:7">
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="58"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" customFormat="1" spans="5:6">
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="56" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="16" customHeight="1" spans="8:8">
-      <c r="H18" s="59"/>
+      <c r="H18" s="63"/>
     </row>
     <row r="20" customFormat="1" ht="15.75" spans="8:12">
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" customFormat="1" spans="9:12">
-      <c r="I21" s="81"/>
-      <c r="L21" s="82"/>
+      <c r="I21" s="85"/>
+      <c r="L21" s="86"/>
     </row>
     <row r="22" customFormat="1" spans="2:9">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61" t="s">
+      <c r="C22" s="64"/>
+      <c r="D22" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="64"/>
+      <c r="I22" s="68"/>
     </row>
     <row r="23" customFormat="1" spans="2:9">
-      <c r="B23" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="65" t="s">
+      <c r="B23" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="69" t="s">
+      <c r="D23" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="73" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:9">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="73" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:9">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="74" t="s">
         <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="69" t="s">
+      <c r="H25" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="69"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" customFormat="1" spans="2:9">
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="69"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" customFormat="1" spans="2:9">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="69" t="s">
+      <c r="I27" s="73" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:7">
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="68"/>
+      <c r="G28" s="72"/>
     </row>
     <row r="29" customFormat="1" spans="2:7">
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="G29" s="63" t="s">
+      <c r="C29" s="69"/>
+      <c r="G29" s="67" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:7">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="G30" s="68" t="s">
+      <c r="C30" s="69"/>
+      <c r="G30" s="72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:7">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="G31" s="68" t="s">
+      <c r="C31" s="76"/>
+      <c r="G31" s="72" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3178,72 +3269,72 @@
       </c>
     </row>
     <row r="33" customFormat="1" ht="15.75" spans="4:5">
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
     </row>
     <row r="35" customFormat="1" ht="15.75" spans="2:5">
-      <c r="B35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
+      <c r="B35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="37" customFormat="1" ht="15.75" spans="9:9">
-      <c r="I37" s="83"/>
+      <c r="I37" s="87"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
     </row>
     <row r="40" spans="4:8">
-      <c r="D40" s="74"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
+      <c r="D40" s="78"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
     </row>
     <row r="41" spans="4:8">
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="73"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="77"/>
     </row>
     <row r="42" spans="4:8">
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
     </row>
     <row r="43" spans="4:8">
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
     </row>
     <row r="44" spans="4:8">
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
     </row>
     <row r="45" spans="4:8">
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="76"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="80"/>
     </row>
     <row r="46" ht="15.75" spans="4:8">
-      <c r="D46" s="67"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="77"/>
+      <c r="D46" s="71"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="81"/>
     </row>
     <row r="47" spans="4:8">
-      <c r="D47" s="67"/>
-      <c r="H47" s="67"/>
+      <c r="D47" s="71"/>
+      <c r="H47" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3256,8 +3347,8 @@
   <sheetPr/>
   <dimension ref="A3:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3277,915 +3368,915 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="4">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="11">
         <v>11</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="11">
         <v>22</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="4">
+      <c r="B10" s="11">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="11">
         <v>100</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="11">
         <v>10</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="4">
+      <c r="B11" s="11">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="11">
         <v>50</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="11">
         <v>20</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="11">
         <v>8887764849</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="11">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="11">
         <v>10</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="11">
         <v>889745758</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="11">
         <v>2</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="11">
         <v>1</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="11">
         <v>100</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="11">
         <v>50</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="11">
         <v>1</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="11">
         <v>100</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="9:9">
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="42" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="9:9">
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="43" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27" spans="9:9">
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="44" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="28" spans="9:9">
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="44" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="9:9">
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="44" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="I33" s="45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="11">
         <v>5000</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="11">
         <v>444444</v>
       </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="28" t="s">
+      <c r="B46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="29" t="s">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="30" t="s">
+      <c r="G46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I47" s="23" t="s">
+      <c r="I47" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I48" s="23" t="s">
+      <c r="I48" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="4:9">
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="32" t="s">
+      <c r="B51" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="11">
         <v>3</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="34" t="s">
+      <c r="B62" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="35"/>
-      <c r="B63" s="34" t="s">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="39" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="35"/>
-      <c r="B64" s="34" t="s">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="39" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="43" t="s">
+      <c r="B65" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="48" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4199,4 +4290,363 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:I58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="24.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/FirstTables.xlsx
+++ b/FirstTables.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="168">
   <si>
     <t>log</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t xml:space="preserve"> name</t>
+  </si>
+  <si>
+    <t>mdesc</t>
   </si>
   <si>
     <t>subscription table</t>
@@ -776,7 +779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,6 +808,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1555,7 +1564,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1579,16 +1588,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1597,89 +1606,89 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1716,22 +1725,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1740,34 +1752,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,16 +1794,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1800,31 +1812,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1881,10 +1893,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1899,7 +1911,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1926,7 +1938,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1940,13 +1952,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1973,10 +1985,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2327,68 +2339,68 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="49"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="88" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="78" t="s">
+      <c r="M5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="78" t="s">
+      <c r="P5" s="79" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="83" t="s">
+      <c r="G6" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="84" t="s">
         <v>17</v>
       </c>
       <c r="I6" t="s">
@@ -2417,28 +2429,28 @@
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:16">
-      <c r="A7" s="50">
+      <c r="A7" s="51">
         <v>1</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="84" t="s">
         <v>25</v>
       </c>
       <c r="I7" t="s">
@@ -2467,26 +2479,26 @@
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:14">
-      <c r="A8" s="50">
+      <c r="A8" s="51">
         <v>2</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="92" t="s">
+      <c r="D8" s="97"/>
+      <c r="E8" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="84" t="s">
         <v>35</v>
       </c>
       <c r="I8" t="s">
@@ -2506,28 +2518,28 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="50">
+      <c r="A9" s="51">
         <v>3</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="85" t="s">
         <v>43</v>
       </c>
       <c r="I9" t="s">
@@ -2541,22 +2553,22 @@
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:15">
-      <c r="A10" s="50">
+      <c r="A10" s="51">
         <v>4</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="62" t="s">
         <v>49</v>
       </c>
       <c r="G10" t="s">
@@ -2576,22 +2588,22 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="59">
+      <c r="A11" s="60">
         <v>5</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="F11" s="96" t="s">
         <v>55</v>
       </c>
       <c r="I11" t="s">
@@ -2599,13 +2611,13 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:10">
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="62" t="s">
         <v>57</v>
       </c>
       <c r="I12" t="s">
@@ -2616,16 +2628,16 @@
       </c>
     </row>
     <row r="13" spans="4:10">
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="93" t="s">
+      <c r="G13" s="94" t="s">
         <v>60</v>
       </c>
       <c r="I13" t="s">
@@ -2636,178 +2648,178 @@
       </c>
     </row>
     <row r="14" spans="4:10">
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="71" t="s">
+      <c r="G14" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="72" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="4:7">
-      <c r="D15" s="91"/>
-      <c r="E15" s="94" t="s">
+      <c r="D15" s="92"/>
+      <c r="E15" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="95" t="s">
+      <c r="F15" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="93" t="s">
+      <c r="G15" s="94" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="4:12">
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="93" t="s">
+      <c r="G16" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="93" t="s">
+      <c r="G17" s="94" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="8:12">
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
     </row>
     <row r="20" ht="15.75" spans="8:12">
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" spans="8:9">
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
     </row>
     <row r="22" spans="8:9">
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="78"/>
+      <c r="E23" s="79"/>
     </row>
     <row r="24" spans="5:8">
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="99" t="s">
+      <c r="H24" s="100" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="5:8">
-      <c r="E25" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="100" t="s">
+      <c r="E25" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="101" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="5:8">
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="71" t="s">
+      <c r="G26" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="100" t="s">
+      <c r="H26" s="101" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="5:8">
-      <c r="E27" s="71"/>
-      <c r="F27" s="71" t="s">
+      <c r="E27" s="72"/>
+      <c r="F27" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="100" t="s">
+      <c r="H27" s="101" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="5:9">
-      <c r="E28" s="71"/>
-      <c r="F28" s="71" t="s">
+      <c r="E28" s="72"/>
+      <c r="F28" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="66"/>
+      <c r="I28" s="67"/>
     </row>
     <row r="29" ht="15.75" spans="5:9">
-      <c r="E29" s="71"/>
-      <c r="I29" s="87"/>
+      <c r="E29" s="72"/>
+      <c r="I29" s="88"/>
     </row>
     <row r="30" spans="5:9">
-      <c r="E30" s="71"/>
-      <c r="I30" s="71"/>
+      <c r="E30" s="72"/>
+      <c r="I30" s="72"/>
     </row>
     <row r="31" ht="15.75" spans="5:9">
-      <c r="E31" s="71"/>
-      <c r="I31" s="87"/>
+      <c r="E31" s="72"/>
+      <c r="I31" s="88"/>
     </row>
     <row r="32" spans="5:9">
-      <c r="E32" s="71"/>
-      <c r="I32" s="71"/>
+      <c r="E32" s="72"/>
+      <c r="I32" s="72"/>
     </row>
     <row r="33" ht="15.75" spans="5:9">
-      <c r="E33" s="71"/>
-      <c r="I33" s="87"/>
+      <c r="E33" s="72"/>
+      <c r="I33" s="88"/>
     </row>
     <row r="34" spans="5:9">
-      <c r="E34" s="71"/>
-      <c r="I34" s="71"/>
+      <c r="E34" s="72"/>
+      <c r="I34" s="72"/>
     </row>
     <row r="35" ht="15.75" spans="5:9">
-      <c r="E35" s="71"/>
-      <c r="F35" s="63"/>
-      <c r="I35" s="87"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="64"/>
+      <c r="I35" s="88"/>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" s="71"/>
-      <c r="I36" s="71"/>
+      <c r="E36" s="72"/>
+      <c r="I36" s="72"/>
     </row>
     <row r="37" ht="15.75" spans="9:9">
-      <c r="I37" s="87"/>
+      <c r="I37" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2847,419 +2859,419 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" s="49"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="83" t="s">
+      <c r="D6" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="84" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="17" customHeight="1" spans="1:9">
-      <c r="A7" s="50">
+      <c r="A7" s="51">
         <v>1</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="84" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A8" s="50">
+      <c r="A8" s="51">
         <v>2</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="84" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:9">
-      <c r="A9" s="50">
+      <c r="A9" s="51">
         <v>3</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="85" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A10" s="50">
+      <c r="A10" s="51">
         <v>4</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="59" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:6">
-      <c r="A11" s="59">
+      <c r="A11" s="60">
         <v>5</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="4:6">
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="53" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="4:6">
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="54" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="62" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="4:6">
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="56" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="5:6">
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="56" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="5:7">
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" customFormat="1" spans="5:6">
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="57" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="16" customHeight="1" spans="8:8">
-      <c r="H18" s="63"/>
+      <c r="H18" s="64"/>
     </row>
     <row r="20" customFormat="1" ht="15.75" spans="8:12">
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" customFormat="1" spans="9:12">
-      <c r="I21" s="85"/>
-      <c r="L21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="L21" s="87"/>
     </row>
     <row r="22" customFormat="1" spans="2:9">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="68"/>
+      <c r="I22" s="69"/>
     </row>
     <row r="23" customFormat="1" spans="2:9">
-      <c r="B23" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="69" t="s">
+      <c r="B23" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="73" t="s">
+      <c r="D23" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="74" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:9">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="73" t="s">
+      <c r="I24" s="74" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:9">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="75" t="s">
         <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="73"/>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" customFormat="1" spans="2:9">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="73"/>
+      <c r="I26" s="74"/>
     </row>
     <row r="27" customFormat="1" spans="2:9">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="73" t="s">
+      <c r="I27" s="74" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:7">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="72"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" customFormat="1" spans="2:7">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="G29" s="67" t="s">
+      <c r="C29" s="70"/>
+      <c r="G29" s="68" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:7">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="G30" s="72" t="s">
+      <c r="C30" s="70"/>
+      <c r="G30" s="73" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:7">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="G31" s="72" t="s">
+      <c r="C31" s="77"/>
+      <c r="G31" s="73" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3269,72 +3281,72 @@
       </c>
     </row>
     <row r="33" customFormat="1" ht="15.75" spans="4:5">
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
     </row>
     <row r="35" customFormat="1" ht="15.75" spans="2:5">
-      <c r="B35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
     </row>
     <row r="37" customFormat="1" ht="15.75" spans="9:9">
-      <c r="I37" s="87"/>
+      <c r="I37" s="88"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
     </row>
     <row r="40" spans="4:8">
-      <c r="D40" s="78"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
+      <c r="D40" s="79"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
     </row>
     <row r="41" spans="4:8">
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="77"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="78"/>
     </row>
     <row r="42" spans="4:8">
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
     </row>
     <row r="43" spans="4:8">
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
     </row>
     <row r="44" spans="4:8">
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
     </row>
     <row r="45" spans="4:8">
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="80"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="81"/>
     </row>
     <row r="46" ht="15.75" spans="4:8">
-      <c r="D46" s="71"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="81"/>
+      <c r="D46" s="72"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="82"/>
     </row>
     <row r="47" spans="4:8">
-      <c r="D47" s="71"/>
-      <c r="H47" s="71"/>
+      <c r="D47" s="72"/>
+      <c r="H47" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3368,19 +3380,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>78</v>
       </c>
       <c r="H3" s="11"/>
@@ -3416,19 +3428,19 @@
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="11"/>
@@ -3446,7 +3458,7 @@
       <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>85</v>
       </c>
       <c r="E7" s="11">
@@ -3467,7 +3479,7 @@
       <c r="C8" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="11">
@@ -3482,19 +3494,19 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>89</v>
       </c>
       <c r="F9" s="11"/>
@@ -3548,40 +3560,40 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="42" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3596,7 +3608,7 @@
       <c r="D13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="19" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -3631,40 +3643,40 @@
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="42" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3678,7 +3690,7 @@
       <c r="D16" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -3713,22 +3725,22 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="23" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="11"/>
@@ -3785,25 +3797,25 @@
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="30" t="s">
         <v>110</v>
       </c>
       <c r="H21" s="11"/>
@@ -3873,32 +3885,32 @@
       </c>
     </row>
     <row r="25" ht="15.75" spans="9:9">
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="43" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="9:9">
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="44" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27" spans="9:9">
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="45" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="28" spans="9:9">
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="9:9">
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="45" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -3922,7 +3934,7 @@
       <c r="H33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3985,22 +3997,22 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="34" t="s">
         <v>52</v>
       </c>
       <c r="G38" s="11"/>
@@ -4051,16 +4063,16 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="32" t="s">
+      <c r="B42" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="34" t="s">
         <v>132</v>
       </c>
       <c r="E42" s="11"/>
@@ -4109,7 +4121,7 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -4120,7 +4132,7 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="36" t="s">
         <v>134</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -4195,22 +4207,22 @@
       <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="37" t="s">
+      <c r="B51" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="37" t="s">
+      <c r="F51" s="38" t="s">
         <v>142</v>
       </c>
       <c r="G51" s="11"/>
@@ -4238,45 +4250,45 @@
       <c r="I52" s="11"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="39" t="s">
+      <c r="B62" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39" t="s">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="40" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39" t="s">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="40" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="47" t="s">
+      <c r="B65" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="49" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4297,8 +4309,8 @@
   <sheetPr/>
   <dimension ref="A3:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4548,7 +4560,7 @@
     <row r="35" spans="1:1">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>134</v>
       </c>
@@ -4561,6 +4573,9 @@
       <c r="D36" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="E36" s="12" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3"/>
@@ -4573,7 +4588,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>17</v>
@@ -4582,10 +4597,10 @@
         <v>64</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -4599,7 +4614,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>17</v>
@@ -4608,16 +4623,16 @@
         <v>78</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="2:7">
